--- a/young_2_0/conf/19届·9.27期大学习有效后台数据（周三14：15导出）.xlsx
+++ b/young_2_0/conf/19届·9.27期大学习有效后台数据（周三14：15导出）.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PyCode\yongStudy\young_2_0\conf\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32730C1-6A40-4518-BA89-377161959CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19级" sheetId="1" r:id="rId1"/>
@@ -17,14 +23,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>22479</author>
     <author>徐海龙</author>
     <author>MINGMO</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -39,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="2">
+    <comment ref="A2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -106,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="488">
   <si>
     <t>34/39</t>
   </si>
@@ -218,7 +224,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>移动应用</t>
     </r>
@@ -227,7 +233,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">1903 </t>
     </r>
@@ -236,7 +241,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>沙雨婷</t>
     </r>
@@ -1459,7 +1464,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="0"/>
       </rPr>
       <t>1902</t>
     </r>
@@ -1468,7 +1472,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>计用王凯</t>
     </r>
@@ -1601,19 +1605,47 @@
   </si>
   <si>
     <t>软件1903夏俊</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吴强</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王皓然</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁义亮</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>周雪</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1647,172 +1679,33 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF333333"/>
       <name val="Open Sans"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1828,202 +1721,37 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2031,269 +1759,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2304,68 +1790,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2623,36 +2066,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.5833333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.8333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.4166666666667" style="3" customWidth="1"/>
-    <col min="5" max="6" width="19.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.0833333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="19.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.44140625" style="3" customWidth="1"/>
     <col min="10" max="10" width="25" style="3" customWidth="1"/>
-    <col min="11" max="11" width="27.25" style="3" customWidth="1"/>
-    <col min="12" max="12" width="22.3333333333333" style="3" customWidth="1"/>
-    <col min="13" max="13" width="29.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="27.21875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="29.44140625" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:13">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2693,7 +2136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="17.4" spans="1:13">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -2734,7 +2177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" ht="14.4" spans="1:13">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -2775,7 +2218,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="14.4" spans="1:13">
+    <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
@@ -2816,7 +2259,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" ht="14.4" spans="1:13">
+    <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
@@ -2857,7 +2300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" ht="14.4" spans="1:13">
+    <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>65</v>
       </c>
@@ -2898,7 +2341,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" ht="14.4" spans="1:13">
+    <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>78</v>
       </c>
@@ -2939,7 +2382,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" ht="14.4" spans="1:13">
+    <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
@@ -2980,7 +2423,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" ht="14.4" spans="1:13">
+    <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>104</v>
       </c>
@@ -3021,7 +2464,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" ht="14.4" spans="1:13">
+    <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>117</v>
       </c>
@@ -3062,7 +2505,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" ht="14.4" spans="1:13">
+    <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>130</v>
       </c>
@@ -3103,7 +2546,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" ht="14.4" spans="1:13">
+    <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>143</v>
       </c>
@@ -3144,7 +2587,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" ht="14.4" spans="1:13">
+    <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>156</v>
       </c>
@@ -3185,7 +2628,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" ht="14.4" spans="1:13">
+    <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>169</v>
       </c>
@@ -3226,7 +2669,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" ht="14.4" spans="1:13">
+    <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>182</v>
       </c>
@@ -3267,7 +2710,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" ht="14.4" spans="1:13">
+    <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>195</v>
       </c>
@@ -3308,7 +2751,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" ht="14.4" spans="1:13">
+    <row r="17" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>208</v>
       </c>
@@ -3349,7 +2792,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" ht="14.4" spans="1:13">
+    <row r="18" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>221</v>
       </c>
@@ -3390,7 +2833,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" ht="14.4" spans="1:13">
+    <row r="19" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>234</v>
       </c>
@@ -3431,7 +2874,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" ht="14.4" spans="1:13">
+    <row r="20" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>247</v>
       </c>
@@ -3472,7 +2915,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" ht="14.4" spans="1:13">
+    <row r="21" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>260</v>
       </c>
@@ -3513,7 +2956,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="22" ht="14.4" spans="1:13">
+    <row r="22" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>273</v>
       </c>
@@ -3554,7 +2997,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" ht="14.4" spans="1:13">
+    <row r="23" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>286</v>
       </c>
@@ -3595,7 +3038,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" ht="14.4" spans="1:13">
+    <row r="24" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>299</v>
       </c>
@@ -3636,7 +3079,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="25" ht="14.4" spans="1:13">
+    <row r="25" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>312</v>
       </c>
@@ -3677,7 +3120,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="26" ht="14.4" spans="1:13">
+    <row r="26" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>325</v>
       </c>
@@ -3716,7 +3159,7 @@
       </c>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" ht="14.4" spans="1:13">
+    <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>337</v>
       </c>
@@ -3755,7 +3198,7 @@
       </c>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" ht="14.4" spans="1:13">
+    <row r="28" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>349</v>
       </c>
@@ -3794,7 +3237,7 @@
       </c>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" ht="14.4" spans="1:13">
+    <row r="29" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>361</v>
       </c>
@@ -3833,7 +3276,7 @@
       </c>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" ht="14.4" spans="1:13">
+    <row r="30" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>373</v>
       </c>
@@ -3872,7 +3315,7 @@
       </c>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" ht="14.4" spans="1:13">
+    <row r="31" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>385</v>
       </c>
@@ -3911,7 +3354,7 @@
       </c>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" ht="14.4" spans="1:13">
+    <row r="32" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>397</v>
       </c>
@@ -3948,7 +3391,7 @@
       </c>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" ht="14.4" spans="1:13">
+    <row r="33" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>408</v>
       </c>
@@ -3985,7 +3428,7 @@
       </c>
       <c r="M33" s="8"/>
     </row>
-    <row r="34" ht="14.4" spans="1:13">
+    <row r="34" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>419</v>
       </c>
@@ -4022,7 +3465,7 @@
       </c>
       <c r="M34" s="8"/>
     </row>
-    <row r="35" ht="14.4" spans="1:13">
+    <row r="35" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>430</v>
       </c>
@@ -4055,7 +3498,7 @@
       </c>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" ht="14.4" spans="1:14">
+    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>439</v>
       </c>
@@ -4066,7 +3509,7 @@
         <v>441</v>
       </c>
       <c r="D36" s="7"/>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="6" t="s">
         <v>442</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -4087,7 +3530,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" ht="14.4" spans="1:14">
+    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="6" t="s">
         <v>447</v>
@@ -4117,7 +3560,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="13"/>
     </row>
-    <row r="38" ht="14.4" spans="1:14">
+    <row r="38" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="6" t="s">
         <v>454</v>
@@ -4142,7 +3585,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="13"/>
     </row>
-    <row r="39" ht="14.4" spans="1:14">
+    <row r="39" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="6" t="s">
         <v>459</v>
@@ -4167,12 +3610,14 @@
       <c r="M39" s="7"/>
       <c r="N39" s="13"/>
     </row>
-    <row r="40" ht="14.4" spans="1:14">
+    <row r="40" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C40" s="8"/>
+      <c r="C40" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="D40" s="7"/>
       <c r="E40" s="5" t="s">
         <v>465</v>
@@ -4191,10 +3636,12 @@
       <c r="M40" s="7"/>
       <c r="N40" s="13"/>
     </row>
-    <row r="41" ht="14.4" spans="1:14">
+    <row r="41" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
+      <c r="C41" s="6" t="s">
+        <v>485</v>
+      </c>
       <c r="D41" s="7"/>
       <c r="E41" s="5" t="s">
         <v>468</v>
@@ -4211,10 +3658,12 @@
       <c r="M41" s="7"/>
       <c r="N41" s="13"/>
     </row>
-    <row r="42" ht="14.4" spans="1:14">
+    <row r="42" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="10"/>
+      <c r="C42" s="6" t="s">
+        <v>486</v>
+      </c>
       <c r="D42" s="7"/>
       <c r="E42" s="5" t="s">
         <v>470</v>
@@ -4231,10 +3680,12 @@
       <c r="M42" s="7"/>
       <c r="N42" s="13"/>
     </row>
-    <row r="43" ht="14.4" spans="1:14">
+    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="C43" s="14" t="s">
+        <v>487</v>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="5" t="s">
         <v>472</v>
@@ -4251,7 +3702,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" ht="14.4" spans="1:14">
+    <row r="44" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -4269,7 +3720,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="13"/>
     </row>
-    <row r="45" ht="14.4" spans="1:14">
+    <row r="45" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -4287,7 +3738,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="13"/>
     </row>
-    <row r="46" ht="14.4" spans="1:14">
+    <row r="46" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -4305,7 +3756,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="13"/>
     </row>
-    <row r="47" ht="14.4" spans="1:14">
+    <row r="47" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -4323,7 +3774,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="13"/>
     </row>
-    <row r="48" ht="14.4" spans="1:14">
+    <row r="48" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -4341,7 +3792,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="13"/>
     </row>
-    <row r="49" ht="14.4" spans="1:13">
+    <row r="49" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -4358,7 +3809,7 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" ht="14.4" spans="1:13">
+    <row r="50" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -4375,7 +3826,7 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" ht="14.4" spans="1:13">
+    <row r="51" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -4392,7 +3843,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" ht="14.4" spans="1:13">
+    <row r="52" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -4409,7 +3860,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" ht="14.4" spans="1:13">
+    <row r="53" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4426,7 +3877,7 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -4441,7 +3892,7 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -4456,7 +3907,7 @@
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -4471,7 +3922,7 @@
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -4486,7 +3937,7 @@
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -4501,7 +3952,7 @@
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -4516,7 +3967,7 @@
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -4531,7 +3982,7 @@
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -4546,7 +3997,7 @@
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -4561,7 +4012,7 @@
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -4576,7 +4027,7 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -4591,7 +4042,7 @@
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -4606,7 +4057,7 @@
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -4621,7 +4072,7 @@
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -4636,7 +4087,7 @@
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -4651,7 +4102,7 @@
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -4666,7 +4117,7 @@
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -4680,9 +4131,9 @@
       <c r="M70" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>